--- a/assets/subcategoryimportfiles/bagscategoryfile.xlsx
+++ b/assets/subcategoryimportfiles/bagscategoryfile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>sno</t>
   </si>
@@ -100,18 +100,6 @@
   </si>
   <si>
     <t>Image8</t>
-  </si>
-  <si>
-    <t>2 inch NA Display
-800 mAh Battery
-0 0 0 208MHz Processor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand Warranty of 1 Year Available for Mobile and 6 Months for Accessories
-</t>
-  </si>
-  <si>
-    <t>repair</t>
   </si>
   <si>
     <t xml:space="preserve">7 days return policy
@@ -121,53 +109,104 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>dress</t>
-  </si>
-  <si>
-    <t>dress_code</t>
-  </si>
-  <si>
-    <t>cloth</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Waterproof</t>
   </si>
   <si>
-    <t>Laptop Compartment</t>
-  </si>
-  <si>
     <t>Closure</t>
   </si>
   <si>
     <t>Wheels</t>
   </si>
   <si>
-    <t>No of Pockets</t>
-  </si>
-  <si>
     <t>Inner Material</t>
   </si>
   <si>
     <t>Product Dimension (In CM)</t>
   </si>
   <si>
-    <t>Disclaimer</t>
+    <t>LEGEND</t>
+  </si>
+  <si>
+    <t>LEGEND CYCLE PURPLE BACK PACK WITH LAPTOP SLEEVE</t>
+  </si>
+  <si>
+    <t>Number Lock Mechanism</t>
+  </si>
+  <si>
+    <t>No of Copartments</t>
+  </si>
+  <si>
+    <t>Outer Material</t>
+  </si>
+  <si>
+    <t>LEGEND CYCLE BACK PACK</t>
+  </si>
+  <si>
+    <t>For Men &amp; Women / Capacity: 39.5 x 27.9 x 15.2 (h x w x d)</t>
+  </si>
+  <si>
+    <t>1 Year Service Warrenty</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Laptop Sleeve</t>
+  </si>
+  <si>
+    <t>No. Of Pockets</t>
+  </si>
+  <si>
+    <t>39.5 x 27.9 x 15.2 (h x w x d)</t>
+  </si>
+  <si>
+    <t>Ideal For</t>
+  </si>
+  <si>
+    <t>Men &amp; Women</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>laptop sleeve</t>
+  </si>
+  <si>
+    <t>closure</t>
+  </si>
+  <si>
+    <t>number lock mechanism</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>no of copartments</t>
+  </si>
+  <si>
+    <t>mo of packets</t>
+  </si>
+  <si>
+    <t>inner material</t>
+  </si>
+  <si>
+    <t>outer material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,28 +229,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2F2F2F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +242,14 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,21 +266,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -264,31 +280,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,55 +604,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
     <col min="10" max="11" width="17.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="18.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33.28515625" customWidth="1"/>
-    <col min="19" max="19" width="48" customWidth="1"/>
-    <col min="20" max="20" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="31" width="48.28515625" customWidth="1"/>
-    <col min="32" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="10" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="14" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:41" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -657,164 +690,175 @@
       <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10">
+        <v>750</v>
+      </c>
+      <c r="D2" s="10">
+        <v>650</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="9">
-        <v>100</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="U2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
+      <c r="X2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AF1:XFD1 A1:N1 Q1:T1">
+  <conditionalFormatting sqref="AH1:XFD1 A1:N1 Q1:T1">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -826,7 +870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN1:XFD1 H1:N1 A1">
+  <conditionalFormatting sqref="AP1:XFD1 H1:N1 A1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
